--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30755.98501307439</v>
+        <v>-38897.80178047119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33917475.15840612</v>
+        <v>33917475.15840614</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11023411.17494686</v>
+        <v>11023411.17494687</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.6863800081488</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G11" t="n">
-        <v>396.054118850051</v>
+        <v>111.814203619931</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>72.62777649495879</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>46.67518885250239</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
         <v>240.8720855447433</v>
@@ -1587,16 +1587,16 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>371.5724976088932</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>105.6325996953958</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>82.30180966038814</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>90.83585524304078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6161358490523</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>289.0012590013212</v>
+        <v>172.2500638587244</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>108.3522384787132</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>197.6232361250183</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>149.6157531058519</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>236.5074761794414</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>150.7050767040275</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>203.5948447170726</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>64.79748953110777</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>116.6395830120779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>18.84333618152533</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>29.59745405728486</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>281.1659340478491</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2608,19 +2608,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>361.464905015728</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>146.1924382374057</v>
       </c>
       <c r="E28" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>229.4219401858651</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2848,16 +2848,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>195.9083147993705</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>49.34995949258592</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>108.3522384787123</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>60.16746298494392</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>191.3318304485797</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>77.2037807833857</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>43.97954181326713</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>14.7497452563699</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>158.6851702988635</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>146.1924382374065</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>173.4164943363247</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>124.2819760410704</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>208.2609885834556</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3562,7 +3562,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>53.19117033386377</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>232.8682775722539</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>168.4257624077813</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>246.5143722645493</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>49.60664915306985</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>134.6061872630535</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>235.8847269686975</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>154.4368869916654</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.30766987964064</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>845.3139403042634</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="C11" t="n">
-        <v>845.3139403042634</v>
+        <v>991.2179488642441</v>
       </c>
       <c r="D11" t="n">
-        <v>845.3139403042634</v>
+        <v>568.8082197164413</v>
       </c>
       <c r="E11" t="n">
-        <v>845.3139403042634</v>
+        <v>568.8082197164413</v>
       </c>
       <c r="F11" t="n">
-        <v>433.509516053608</v>
+        <v>146.3984905686384</v>
       </c>
       <c r="G11" t="n">
         <v>33.45485054850599</v>
@@ -5038,16 +5038,16 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524252</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073331</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M11" t="n">
         <v>801.8833353847206</v>
@@ -5074,19 +5074,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="X11" t="n">
-        <v>1253.60006400461</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="Y11" t="n">
-        <v>845.3139403042634</v>
+        <v>1413.627678012047</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E12" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2518767018075</v>
+        <v>167.4171577960269</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9898955472398</v>
+        <v>281.1551766414592</v>
       </c>
       <c r="L12" t="n">
-        <v>390.9246980282439</v>
+        <v>434.0899791224633</v>
       </c>
       <c r="M12" t="n">
-        <v>569.3923990549604</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N12" t="n">
-        <v>752.5836090806357</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O12" t="n">
-        <v>1166.587384618397</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P12" t="n">
-        <v>1301.088453811771</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>592.0553407468744</v>
+        <v>583.0574916219705</v>
       </c>
       <c r="C13" t="n">
-        <v>592.0553407468744</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="D13" t="n">
-        <v>592.0553407468744</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="E13" t="n">
-        <v>422.2973369976117</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F13" t="n">
-        <v>245.5902829593679</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G13" t="n">
-        <v>80.60150595507406</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H13" t="n">
         <v>33.45485054850599</v>
@@ -5202,13 +5202,13 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>359.9133944508751</v>
       </c>
       <c r="L13" t="n">
-        <v>592.940721149037</v>
+        <v>447.7058679834641</v>
       </c>
       <c r="M13" t="n">
-        <v>861.7096435212255</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N13" t="n">
         <v>952.0735121144794</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.037253290152</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V13" t="n">
-        <v>864.0817451605828</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="W13" t="n">
-        <v>592.0553407468744</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="X13" t="n">
-        <v>592.0553407468744</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.0553407468744</v>
+        <v>774.8761103409577</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>831.1903348568071</v>
+        <v>837.9386324221351</v>
       </c>
       <c r="C14" t="n">
-        <v>455.8645796963089</v>
+        <v>837.9386324221351</v>
       </c>
       <c r="D14" t="n">
-        <v>455.8645796963089</v>
+        <v>837.9386324221351</v>
       </c>
       <c r="E14" t="n">
-        <v>455.8645796963089</v>
+        <v>837.9386324221351</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45485054850599</v>
+        <v>415.5289032743322</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
@@ -5278,16 +5278,16 @@
         <v>83.79828774524233</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073329</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L14" t="n">
         <v>570.7285396968689</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5296,34 +5296,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P14" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W14" t="n">
-        <v>1672.742527425299</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="X14" t="n">
-        <v>1253.60006400461</v>
+        <v>837.9386324221351</v>
       </c>
       <c r="Y14" t="n">
-        <v>1253.60006400461</v>
+        <v>837.9386324221351</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>425.510762671888</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F15" t="n">
         <v>152.9162207615566</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>544.9086853403064</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="C16" t="n">
-        <v>544.9086853403064</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="D16" t="n">
-        <v>544.9086853403064</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="E16" t="n">
-        <v>375.1506815910436</v>
+        <v>416.1221882558776</v>
       </c>
       <c r="F16" t="n">
-        <v>198.4436275527998</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H16" t="n">
         <v>33.45485054850599</v>
@@ -5442,19 +5442,19 @@
         <v>143.8101078806224</v>
       </c>
       <c r="L16" t="n">
-        <v>304.3051044129577</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M16" t="n">
-        <v>718.3088799507193</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N16" t="n">
-        <v>1132.312655488481</v>
+        <v>738.1712108779898</v>
       </c>
       <c r="O16" t="n">
-        <v>1546.316431026242</v>
+        <v>1152.174986415751</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.735720978399</v>
+        <v>1566.178761953513</v>
       </c>
       <c r="Q16" t="n">
         <v>1667.182735391305</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1580.989138290915</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1337.684001377033</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.283864155768</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V16" t="n">
-        <v>772.3283560261982</v>
+        <v>1107.386882074465</v>
       </c>
       <c r="W16" t="n">
-        <v>772.3283560261982</v>
+        <v>835.3604776607565</v>
       </c>
       <c r="X16" t="n">
-        <v>772.3283560261982</v>
+        <v>835.3604776607565</v>
       </c>
       <c r="Y16" t="n">
-        <v>544.9086853403064</v>
+        <v>607.9408069748647</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.1270151866529</v>
+        <v>1326.330542644784</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895474</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1326.330542644784</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>1326.330542644784</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5603,7 +5603,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987881</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5621,7 +5621,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
         <v>1505.938530508979</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>927.5506608361497</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C19" t="n">
-        <v>754.9889493193747</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>589.1109565208974</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>419.3529527716346</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
@@ -5676,10 +5676,10 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>828.1746199579901</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
         <v>1412.355695376305</v>
@@ -5688,10 +5688,10 @@
         <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1864.207109321325</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1864.207109321325</v>
+        <v>1774.034384426067</v>
       </c>
       <c r="W19" t="n">
-        <v>1592.180704907616</v>
+        <v>1502.007980012359</v>
       </c>
       <c r="X19" t="n">
-        <v>1346.788950241029</v>
+        <v>1256.616225345771</v>
       </c>
       <c r="Y19" t="n">
-        <v>1119.369279555137</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.028006962828</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C20" t="n">
-        <v>1495.885534146252</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D20" t="n">
-        <v>1059.975749320696</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E20" t="n">
-        <v>626.2010044789913</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F20" t="n">
-        <v>198.3335748881991</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447736</v>
+        <v>1610.122824067866</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447736</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447736</v>
+        <v>1190.980360647176</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.196554659879</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C22" t="n">
-        <v>856.6348431431041</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D22" t="n">
-        <v>690.7568503446269</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>839.4924998801306</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>970.0968922186599</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.853003145054</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V22" t="n">
-        <v>1965.853003145054</v>
+        <v>1731.863048700641</v>
       </c>
       <c r="W22" t="n">
-        <v>1693.826598731346</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X22" t="n">
-        <v>1448.434844064758</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y22" t="n">
-        <v>1221.015173378866</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1217.792588778504</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>781.8828039529487</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>781.8828039529487</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
@@ -6022,19 +6022,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.718744241844</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1655.935061595081</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.6552262893761</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C25" t="n">
-        <v>299.0935147726011</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D25" t="n">
-        <v>280.0598418619694</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E25" t="n">
-        <v>110.3018381127067</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F25" t="n">
-        <v>110.3018381127067</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
@@ -6153,16 +6153,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M25" t="n">
-        <v>1236.93553127931</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N25" t="n">
-        <v>1364.434443083199</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
         <v>2105.896438675981</v>
@@ -6180,19 +6180,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1943.757396615696</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X25" t="n">
-        <v>890.893515694255</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083632</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1900.718744241844</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1462.576271425268</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>1462.576271425268</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>1028.801526583563</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>600.9340969927707</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
@@ -6226,7 +6226,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
         <v>512.3249274228015</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1900.718744241844</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y26" t="n">
-        <v>1900.718744241844</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C28" t="n">
-        <v>299.0935147726011</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D28" t="n">
-        <v>133.2155219741237</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
         <v>47.20655154895473</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L28" t="n">
-        <v>733.4227107706869</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M28" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774551</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X28" t="n">
-        <v>890.893515694255</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>1422.719694168252</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>984.5772213516757</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>548.6674365261201</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
@@ -6460,25 +6460,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6496,19 +6496,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.473006065472</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>1340.617551476506</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X29" t="n">
-        <v>1142.730364810475</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y29" t="n">
-        <v>1142.730364810475</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6545,7 +6545,7 @@
         <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.2333208532364</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C31" t="n">
-        <v>393.6716093364613</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027639</v>
       </c>
       <c r="L31" t="n">
-        <v>688.1212571728194</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M31" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N31" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2310.479133515832</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2068.231909419238</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1789.845277467981</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.889769338411</v>
+        <v>1864.207109321325</v>
       </c>
       <c r="W31" t="n">
-        <v>1230.863364924703</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X31" t="n">
-        <v>985.4716102581153</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.0519395722235</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1215.348482278451</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C32" t="n">
-        <v>777.2060094618741</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895473</v>
@@ -6700,10 +6700,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
         <v>805.440802286702</v>
@@ -6712,7 +6712,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.790516184048</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W32" t="n">
-        <v>2060.790516184048</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="X32" t="n">
-        <v>1641.648052763358</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="Y32" t="n">
-        <v>1641.648052763358</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="33">
@@ -6770,19 +6770,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>301.8972225401134</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>125.1901685018696</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
@@ -6864,16 +6864,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180194</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P34" t="n">
         <v>2105.896438675981</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>2315.903797838376</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.2588091910869</v>
+        <v>489.9727137219388</v>
       </c>
       <c r="C35" t="n">
-        <v>483.1163363745102</v>
+        <v>489.9727137219388</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895473</v>
+        <v>489.9727137219388</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895473</v>
+        <v>489.9727137219388</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>62.10528413114656</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>62.10528413114656</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X35" t="n">
-        <v>921.2588091910869</v>
+        <v>1324.558407907193</v>
       </c>
       <c r="Y35" t="n">
-        <v>921.2588091910869</v>
+        <v>916.2722842068466</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>541.3407388691952</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>862.082053811994</v>
+        <v>601.5415720081296</v>
       </c>
       <c r="M37" t="n">
-        <v>992.6864461505235</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.698306725808</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W37" t="n">
-        <v>1686.698306725808</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>695.7136592983148</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="C38" t="n">
-        <v>257.5711864817382</v>
+        <v>1006.021337247617</v>
       </c>
       <c r="D38" t="n">
-        <v>257.5711864817382</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E38" t="n">
-        <v>257.5711864817382</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F38" t="n">
-        <v>257.5711864817382</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783223</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X38" t="n">
-        <v>1122.013229783223</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1122.013229783223</v>
+        <v>1444.163810064194</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851416</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>443.5200532683665</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>277.6420604698892</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>277.6420604698892</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>100.9350064316454</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>100.9350064316454</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>413.3628026016838</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>997.5438780199985</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1738.433332459162</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1738.433332459162</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1466.406928045454</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041287</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>1078.975758716585</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>645.2010138748797</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>217.3335842840874</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7414,7 +7414,7 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867024</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X41" t="n">
-        <v>873.0088133543854</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="Y41" t="n">
-        <v>873.0088133543854</v>
+        <v>1941.185114027048</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>807.9003835041292</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="C43" t="n">
-        <v>635.3386719873541</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D43" t="n">
-        <v>469.4606791888768</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E43" t="n">
-        <v>469.4606791888768</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>292.7536251506331</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
         <v>110.3018381127067</v>
@@ -7572,16 +7572,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728195</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>818.7256495113489</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527957</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1559.301337183865</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1287.274932770157</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>1041.883178103569</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>814.4635074176776</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.6190276950331</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>157.867205102997</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2122.060176469255</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1717.204721880288</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.204721880288</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.918598179941</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
         <v>47.20655154895474</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>888.1081691988504</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C46" t="n">
-        <v>715.5464576820754</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6684648835981</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E46" t="n">
-        <v>379.9104611343353</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="F46" t="n">
-        <v>203.2034070960915</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7806,10 +7806,10 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
         <v>828.1746199579906</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1552.738213270317</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1307.346458603729</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1079.926787917838</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>248.9086946183348</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.059642569503</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8850,13 +8850,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>130.8319206116796</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.9839075203756</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>73.43689191893561</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>326.9089969136442</v>
@@ -9102,10 +9102,10 @@
         <v>333.8768859352889</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>52.07773638877347</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>141.468043217344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>152.9002451589002</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="L28" t="n">
-        <v>45.75904403825007</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>458.158265737157</v>
@@ -10047,13 +10047,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>192.4544649334019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>175.7179764032066</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>45.75904403825029</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>175.7179764032068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>337.3548964453471</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>69.27619576520605</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N43" t="n">
-        <v>175.7179764032069</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>228.9222706564251</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M46" t="n">
         <v>458.1582657371571</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097506</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>15.90237528673555</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.2399152301199</v>
       </c>
       <c r="H11" t="n">
         <v>272.6207125031721</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>98.20831790664852</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.52477658315642</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.83578017384922</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>62.18855047951774</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,10 +23509,10 @@
         <v>5.403123438559476</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>290.4215191546551</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
@@ -23554,7 +23554,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23661,16 +23661,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>92.63817383747319</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>69.83578017384922</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>56.41820229762905</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>144.7597890870898</v>
+        <v>261.5109842296865</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>167.2505271530312</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>86.4627169232555</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>245.8919113014657</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>164.2994238636356</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>124.8976889277169</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>80.49110833120127</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>358.7912657637766</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.5636794512652</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.3758766889672</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>246.0053115744596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>114.3417303594685</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>18.02677463308686</v>
       </c>
       <c r="E28" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>200.0150572074227</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>219.0427239871119</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>93.6323136182219</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>175.7337145695615</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>371.383223992356</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>209.4750695944973</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>85.88998780022106</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>231.6232238184773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>252.2745906851588</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>256.2658684876189</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>18.02677463308598</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>69.52134278359699</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>307.2687109362296</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>187.246675823862</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.82944968061348</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>42.73448805949053</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>227.0819019995362</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>168.4366665219331</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.4871194305369</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>149.4797657852203</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>157.4702889230268</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,16 +25924,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1060535968142</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>8.656881591941357</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>49.71295013483662</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331483.4173296684</v>
+        <v>331483.4173296685</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>420560.765447374</v>
+        <v>420560.7654473741</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>420560.7654473741</v>
+        <v>420560.765447374</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>420560.765447374</v>
+        <v>420560.7654473741</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420560.765447374</v>
+        <v>420560.7654473741</v>
       </c>
     </row>
   </sheetData>
@@ -26334,25 +26334,25 @@
         <v>141567.8141707356</v>
       </c>
       <c r="I2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707355</v>
       </c>
       <c r="K2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="L2" t="n">
+        <v>141567.8141707357</v>
+      </c>
+      <c r="M2" t="n">
         <v>141567.8141707356</v>
-      </c>
-      <c r="M2" t="n">
-        <v>141567.8141707355</v>
       </c>
       <c r="N2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="O2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
         <v>141567.8141707357</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.7529837591</v>
+        <v>390603.752983759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.00746823744</v>
+        <v>41367.00746823741</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15365.01109927397</v>
+        <v>15365.01109927398</v>
       </c>
       <c r="F4" t="n">
         <v>15365.01109927397</v>
@@ -26438,7 +26438,7 @@
         <v>12054.84944074259</v>
       </c>
       <c r="I4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
       <c r="J4" t="n">
         <v>12054.84944074259</v>
@@ -26450,7 +26450,7 @@
         <v>12054.84944074259</v>
       </c>
       <c r="M4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="N4" t="n">
         <v>12054.84944074259</v>
@@ -26502,10 +26502,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-329054.1386717642</v>
+        <v>-329785.8895935389</v>
       </c>
       <c r="F6" t="n">
-        <v>61549.61431199485</v>
+        <v>60817.86339022012</v>
       </c>
       <c r="G6" t="n">
-        <v>-69336.53338621423</v>
+        <v>-69890.41382943619</v>
       </c>
       <c r="H6" t="n">
-        <v>83461.8835203552</v>
+        <v>82908.00307713327</v>
       </c>
       <c r="I6" t="n">
-        <v>83461.88352035526</v>
+        <v>82908.00307713328</v>
       </c>
       <c r="J6" t="n">
-        <v>83461.88352035526</v>
+        <v>82908.00307713321</v>
       </c>
       <c r="K6" t="n">
-        <v>83461.88352035523</v>
+        <v>82908.0030771333</v>
       </c>
       <c r="L6" t="n">
-        <v>83461.88352035523</v>
+        <v>82908.00307713333</v>
       </c>
       <c r="M6" t="n">
-        <v>-20751.64868076844</v>
+        <v>-21305.52912399036</v>
       </c>
       <c r="N6" t="n">
-        <v>83461.88352035523</v>
+        <v>82908.00307713325</v>
       </c>
       <c r="O6" t="n">
-        <v>42094.87605211783</v>
+        <v>41540.9956088958</v>
       </c>
       <c r="P6" t="n">
-        <v>83461.88352035524</v>
+        <v>82908.00307713333</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26770,10 +26770,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932212</v>
@@ -26807,7 +26807,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
@@ -26822,10 +26822,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056095</v>
+        <v>171.8962625056094</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H13" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,10 +32308,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32320,7 +32320,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,10 +32414,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562338</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,43 +33967,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K11" t="n">
         <v>169.1471783864346</v>
@@ -35418,10 +35418,10 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464439</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667433</v>
@@ -35430,7 +35430,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R11" t="n">
         <v>83.52891675219394</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>84.49271384696755</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>418.1856318563248</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.878231272555</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35570,16 +35570,16 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915197</v>
+        <v>200.1312371071027</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453442</v>
+        <v>88.67926619453436</v>
       </c>
       <c r="M13" t="n">
-        <v>271.4837599719077</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O13" t="n">
         <v>84.30874592103589</v>
@@ -35591,7 +35591,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464439</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
@@ -35670,7 +35670,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35810,10 +35810,10 @@
         <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>162.11615811347</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M16" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N16" t="n">
         <v>418.1856318563248</v>
@@ -35822,13 +35822,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.9464792049564</v>
+        <v>102.0242155937299</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35965,13 +35965,13 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
@@ -36044,13 +36044,13 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>266.5900650540086</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
@@ -36062,7 +36062,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,7 +36123,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36132,13 +36132,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0222669955648</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,10 +36357,10 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766673</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562351</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36521,22 +36521,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>170.8810658749151</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>296.1475206512691</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654563</v>
       </c>
       <c r="L28" t="n">
-        <v>170.8810658749146</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36834,28 +36834,28 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>290.2323442945718</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>304.5047560030951</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,22 +37068,22 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37232,22 +37232,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>164.7144797430601</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>300.8399982398713</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>469.2785250701244</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37627,7 +37627,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37782,10 +37782,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816033</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37940,19 +37940,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N43" t="n">
-        <v>304.5047560030954</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>354.0442924930898</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
